--- a/evaluations/experimental_results.xlsx
+++ b/evaluations/experimental_results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10510"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Study\20192\Constraint-based_local_search\customer_order_scheduling\evaluations\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ngocbh/workspace/BK.Project/customer_order_scheduling/evaluations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3414B345-B106-46D8-A8E3-C51897644DF4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C14DEFE6-CB1F-4C40-A112-F6FE2A78F532}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1120" yWindow="460" windowWidth="27680" windowHeight="17540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -175,7 +175,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -211,7 +211,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -227,7 +227,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Chủ đề Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -549,13 +549,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y36"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:M1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C37" sqref="C37:C39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="E1" t="s">
         <v>4</v>
       </c>
@@ -578,7 +581,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -655,7 +658,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -732,7 +735,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -755,7 +758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -832,7 +835,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -909,7 +912,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -986,7 +989,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -1063,7 +1066,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -1131,7 +1134,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -1199,7 +1202,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -1267,7 +1270,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -1335,7 +1338,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -1403,7 +1406,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -1480,7 +1483,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -1557,7 +1560,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -1625,7 +1628,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>28</v>
       </c>
@@ -1693,7 +1696,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>29</v>
       </c>
@@ -1761,7 +1764,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -1829,7 +1832,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>31</v>
       </c>
@@ -1885,7 +1888,7 @@
         <v>2946</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>32</v>
       </c>
@@ -1941,7 +1944,7 @@
         <v>3079</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>33</v>
       </c>
@@ -1997,7 +2000,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>34</v>
       </c>
@@ -2053,7 +2056,7 @@
         <v>4427</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>35</v>
       </c>
@@ -2091,7 +2094,7 @@
         <v>57760</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>36</v>
       </c>
@@ -2138,7 +2141,7 @@
         <v>30573</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>37</v>
       </c>
@@ -2185,7 +2188,7 @@
         <v>26100</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>38</v>
       </c>
@@ -2232,7 +2235,7 @@
         <v>26411</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>39</v>
       </c>
@@ -2279,7 +2282,7 @@
         <v>22476</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>40</v>
       </c>
@@ -2326,7 +2329,7 @@
         <v>81175</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>41</v>
       </c>
@@ -2373,7 +2376,7 @@
         <v>10614069</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>42</v>
       </c>
@@ -2402,7 +2405,7 @@
         <v>79164</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>43</v>
       </c>
@@ -2431,7 +2434,7 @@
         <v>513560</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>44</v>
       </c>
@@ -2460,7 +2463,7 @@
         <v>54255605</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>45</v>
       </c>
@@ -2489,7 +2492,7 @@
         <v>1065835</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>46</v>
       </c>
@@ -2518,7 +2521,7 @@
         <v>118624494</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>47</v>
       </c>
@@ -2556,16 +2559,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{889C7FAB-16D5-4B60-8CA1-852DAB797880}">
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>11</v>
       </c>
@@ -2573,7 +2576,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2590,7 +2593,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -2607,12 +2610,12 @@
         <v>10.605</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -2629,7 +2632,7 @@
         <v>10.058</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -2646,7 +2649,7 @@
         <v>9.7460000000000004</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -2663,7 +2666,7 @@
         <v>10.965999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -2680,7 +2683,7 @@
         <v>10.923999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -2697,7 +2700,7 @@
         <v>15.047000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -2714,7 +2717,7 @@
         <v>11.506</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -2731,7 +2734,7 @@
         <v>15.391999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -2748,7 +2751,7 @@
         <v>18.087</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -2765,7 +2768,7 @@
         <v>18.149000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -2782,7 +2785,7 @@
         <v>34.829000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -2799,7 +2802,7 @@
         <v>37.725000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -2816,7 +2819,7 @@
         <v>58.850999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>28</v>
       </c>
@@ -2833,7 +2836,7 @@
         <v>64.986999999999995</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>29</v>
       </c>
@@ -2850,7 +2853,7 @@
         <v>59.404000000000003</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -2867,7 +2870,7 @@
         <v>65.063999999999993</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>31</v>
       </c>
@@ -2884,7 +2887,7 @@
         <v>7136.8</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>32</v>
       </c>
@@ -2901,7 +2904,7 @@
         <v>5894.13</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>33</v>
       </c>
@@ -2918,7 +2921,7 @@
         <v>6881.81</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>34</v>
       </c>
@@ -2935,7 +2938,7 @@
         <v>7251.96</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>35</v>
       </c>
@@ -2952,7 +2955,7 @@
         <v>51952.2</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>36</v>
       </c>
@@ -2969,7 +2972,7 @@
         <v>60275.7</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>37</v>
       </c>
@@ -2986,7 +2989,7 @@
         <v>57750.3</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>38</v>
       </c>
@@ -3003,7 +3006,7 @@
         <v>64354.8</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>39</v>
       </c>
@@ -3020,7 +3023,7 @@
         <v>89497.3</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>40</v>
       </c>
@@ -3037,7 +3040,7 @@
         <v>87001.1</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>41</v>
       </c>
@@ -3054,7 +3057,7 @@
         <v>88971.6</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>42</v>
       </c>
@@ -3065,7 +3068,7 @@
         <v>631.55499999999995</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>43</v>
       </c>
@@ -3076,7 +3079,7 @@
         <v>491.05099999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>44</v>
       </c>
@@ -3087,7 +3090,7 @@
         <v>840.73500000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>45</v>
       </c>
@@ -3098,7 +3101,7 @@
         <v>7217.42</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>46</v>
       </c>
@@ -3109,7 +3112,7 @@
         <v>9345.7000000000007</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>47</v>
       </c>
